--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="107">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,6 +40,12 @@
     <t>name</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
@@ -49,241 +55,286 @@
     <t>panic</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>hands</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>employees</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>know</t>
+    <t>see</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>shelves</t>
   </si>
   <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>one</t>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>go</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
     <t>workers</t>
   </si>
   <si>
     <t>get</t>
   </si>
   <si>
+    <t>food</t>
+  </si>
+  <si>
     <t>people</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
 </sst>
 </file>
@@ -641,7 +692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q80"/>
+  <dimension ref="A1:Q95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -649,10 +700,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -710,13 +761,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.5445205479452054</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C3">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -728,31 +779,31 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>133</v>
+        <v>9</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>0.9310344827586207</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L3">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="M3">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="N3">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -760,13 +811,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3466666666666667</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -778,31 +829,31 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>0.8888888888888888</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L4">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="N4">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -810,49 +861,49 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2271844660194175</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="C5">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="D5">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="E5">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>398</v>
+        <v>132</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.8666666666666667</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N5">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -860,49 +911,49 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.0131729667812142</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>420</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1723</v>
+        <v>50</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8363636363636363</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="L6">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="M6">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="N6">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -910,165 +961,141 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.009287925696594427</v>
+        <v>0.2403100775193799</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="D7">
-        <v>547</v>
+        <v>124</v>
       </c>
       <c r="E7">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>2560</v>
+        <v>392</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>0.8787878787878788</v>
+      </c>
+      <c r="L7">
+        <v>29</v>
+      </c>
+      <c r="M7">
+        <v>29</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K7">
-        <v>0.825</v>
-      </c>
-      <c r="L7">
-        <v>66</v>
-      </c>
-      <c r="M7">
-        <v>68</v>
-      </c>
-      <c r="N7">
-        <v>0.97</v>
-      </c>
-      <c r="O7">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.009242801279772485</v>
-      </c>
-      <c r="C8">
-        <v>26</v>
-      </c>
-      <c r="D8">
-        <v>414</v>
-      </c>
-      <c r="E8">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F8">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>2787</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="K8">
-        <v>0.8188976377952756</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L8">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="M8">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="N8">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>0.8359375</v>
+      </c>
+      <c r="L9">
+        <v>107</v>
+      </c>
+      <c r="M9">
+        <v>107</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>21</v>
-      </c>
-      <c r="K9">
-        <v>0.7784810126582279</v>
-      </c>
-      <c r="L9">
-        <v>123</v>
-      </c>
-      <c r="M9">
-        <v>125</v>
-      </c>
-      <c r="N9">
-        <v>0.98</v>
-      </c>
-      <c r="O9">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P9" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K10">
-        <v>0.693069306930693</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L10">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M10">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="N10">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>0.6830985915492958</v>
+        <v>0.76875</v>
       </c>
       <c r="L11">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="M11">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1080,47 +1107,47 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>0.6796536796536796</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L12">
-        <v>157</v>
+        <v>47</v>
       </c>
       <c r="M12">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c r="N12">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.6666666666666666</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="L13">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="M13">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1132,47 +1159,47 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.65625</v>
+        <v>0.7068965517241379</v>
       </c>
       <c r="L14">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="M14">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N14">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.6382978723404256</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="L15">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="M15">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1184,47 +1211,47 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.6222222222222222</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L16">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="M16">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="N16">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.5873015873015873</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L17">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="M17">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1236,203 +1263,203 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.5457317073170732</v>
+        <v>0.6736401673640168</v>
       </c>
       <c r="L18">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="M18">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="N18">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>149</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.5263157894736842</v>
+        <v>0.648936170212766</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="N19">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.5113636363636364</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L20">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="N20">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.5104166666666666</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L21">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="M21">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="N21">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>141</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.4960629921259843</v>
+        <v>0.5823529411764706</v>
       </c>
       <c r="L22">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="M22">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="N22">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>192</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.4893617021276596</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="L23">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N23">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.4776119402985075</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L24">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="M24">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N24">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.46</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1444,99 +1471,99 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.3968253968253968</v>
+        <v>0.5389830508474577</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="M26">
-        <v>27</v>
+        <v>159</v>
       </c>
       <c r="N26">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>38</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.3222748815165877</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L27">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="M27">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="N27">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>143</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.308252427184466</v>
+        <v>0.5248041775456919</v>
       </c>
       <c r="L28">
-        <v>127</v>
+        <v>201</v>
       </c>
       <c r="M28">
-        <v>133</v>
+        <v>201</v>
       </c>
       <c r="N28">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>285</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.296875</v>
+        <v>0.5</v>
       </c>
       <c r="L29">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M29">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1548,99 +1575,99 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>0.2774193548387097</v>
+        <v>0.4893617021276596</v>
       </c>
       <c r="L30">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="M30">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="N30">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>112</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>0.2526315789473684</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L31">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="N31">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K32">
-        <v>0.25</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="L32">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M32">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="N32">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>120</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>0.2417582417582418</v>
+        <v>0.453125</v>
       </c>
       <c r="L33">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M33">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1652,47 +1679,47 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K34">
-        <v>0.2293577981651376</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="M34">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="N34">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>84</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K35">
-        <v>0.2260869565217391</v>
+        <v>0.3442622950819672</v>
       </c>
       <c r="L35">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M35">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1704,203 +1731,203 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>89</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K36">
-        <v>0.2227602905569007</v>
+        <v>0.3144654088050314</v>
       </c>
       <c r="L36">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="M36">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="N36">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>321</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K37">
+        <v>0.3081761006289308</v>
+      </c>
+      <c r="L37">
         <v>49</v>
       </c>
-      <c r="K37">
-        <v>0.2190082644628099</v>
-      </c>
-      <c r="L37">
-        <v>106</v>
-      </c>
       <c r="M37">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="N37">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>378</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K38">
-        <v>0.2181818181818182</v>
+        <v>0.302158273381295</v>
       </c>
       <c r="L38">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="M38">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="N38">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="O38">
-        <v>0.07999999999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>86</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K39">
+        <v>0.3013698630136986</v>
+      </c>
+      <c r="L39">
+        <v>22</v>
+      </c>
+      <c r="M39">
+        <v>22</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
         <v>51</v>
-      </c>
-      <c r="K39">
-        <v>0.2167832167832168</v>
-      </c>
-      <c r="L39">
-        <v>31</v>
-      </c>
-      <c r="M39">
-        <v>31</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>112</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K40">
-        <v>0.2088607594936709</v>
+        <v>0.288659793814433</v>
       </c>
       <c r="L40">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M40">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N40">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>125</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K41">
-        <v>0.2012383900928792</v>
+        <v>0.2781954887218045</v>
       </c>
       <c r="L41">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="M41">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="N41">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>258</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K42">
-        <v>0.2</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="L42">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M42">
         <v>21</v>
       </c>
       <c r="N42">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K43">
-        <v>0.191588785046729</v>
+        <v>0.2654320987654321</v>
       </c>
       <c r="L43">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M43">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N43">
         <v>0.98</v>
@@ -1912,33 +1939,33 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>173</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="K44">
-        <v>0.1872641509433962</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="L44">
-        <v>397</v>
+        <v>19</v>
       </c>
       <c r="M44">
-        <v>420</v>
+        <v>19</v>
       </c>
       <c r="N44">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>1723</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1946,25 +1973,25 @@
         <v>56</v>
       </c>
       <c r="K45">
-        <v>0.1848928974069899</v>
+        <v>0.2604651162790698</v>
       </c>
       <c r="L45">
-        <v>164</v>
+        <v>56</v>
       </c>
       <c r="M45">
-        <v>171</v>
+        <v>56</v>
       </c>
       <c r="N45">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>723</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1972,13 +1999,13 @@
         <v>57</v>
       </c>
       <c r="K46">
-        <v>0.1826086956521739</v>
+        <v>0.2531645569620253</v>
       </c>
       <c r="L46">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="M46">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1990,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>188</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1998,13 +2025,13 @@
         <v>58</v>
       </c>
       <c r="K47">
-        <v>0.1769911504424779</v>
+        <v>0.2527472527472527</v>
       </c>
       <c r="L47">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M47">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2016,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>93</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2024,25 +2051,25 @@
         <v>59</v>
       </c>
       <c r="K48">
-        <v>0.1768292682926829</v>
+        <v>0.2462686567164179</v>
       </c>
       <c r="L48">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M48">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N48">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>135</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2050,25 +2077,25 @@
         <v>60</v>
       </c>
       <c r="K49">
-        <v>0.1759259259259259</v>
+        <v>0.2439024390243902</v>
       </c>
       <c r="L49">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M49">
         <v>20</v>
       </c>
       <c r="N49">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>89</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2076,25 +2103,25 @@
         <v>61</v>
       </c>
       <c r="K50">
-        <v>0.1737089201877934</v>
+        <v>0.2427884615384615</v>
       </c>
       <c r="L50">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="M50">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="N50">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>528</v>
+        <v>315</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2102,13 +2129,13 @@
         <v>62</v>
       </c>
       <c r="K51">
-        <v>0.1724137931034483</v>
+        <v>0.2410714285714286</v>
       </c>
       <c r="L51">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M51">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2120,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2128,137 +2155,137 @@
         <v>63</v>
       </c>
       <c r="K52">
-        <v>0.171875</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="L52">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M52">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N52">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>106</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="K53">
-        <v>0.1696399610768732</v>
+        <v>0.2366412213740458</v>
       </c>
       <c r="L53">
-        <v>523</v>
+        <v>31</v>
       </c>
       <c r="M53">
-        <v>547</v>
+        <v>31</v>
       </c>
       <c r="N53">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>2560</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K54">
-        <v>0.1690962099125364</v>
+        <v>0.2347826086956522</v>
       </c>
       <c r="L54">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="M54">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="N54">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>285</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K55">
-        <v>0.1657334826427772</v>
+        <v>0.2248062015503876</v>
       </c>
       <c r="L55">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="M55">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="N55">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>745</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K56">
-        <v>0.1639344262295082</v>
+        <v>0.2167832167832168</v>
       </c>
       <c r="L56">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M56">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N56">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>153</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K57">
-        <v>0.163265306122449</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L57">
         <v>24</v>
@@ -2276,333 +2303,333 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>123</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K58">
-        <v>0.1603053435114504</v>
+        <v>0.2130434782608696</v>
       </c>
       <c r="L58">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="M58">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="N58">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>110</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K59">
-        <v>0.1590909090909091</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="L59">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M59">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N59">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K60">
-        <v>0.1544117647058824</v>
+        <v>0.205761316872428</v>
       </c>
       <c r="L60">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="M60">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="N60">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>115</v>
+        <v>386</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K61">
-        <v>0.1544117647058824</v>
+        <v>0.2047244094488189</v>
       </c>
       <c r="L61">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M61">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N61">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K62">
-        <v>0.1507936507936508</v>
+        <v>0.2040816326530612</v>
       </c>
       <c r="L62">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M62">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N62">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K63">
-        <v>0.1484375</v>
+        <v>0.2034383954154728</v>
       </c>
       <c r="L63">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="M63">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="N63">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>109</v>
+        <v>278</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K64">
-        <v>0.1474245115452931</v>
+        <v>0.2024539877300613</v>
       </c>
       <c r="L64">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="M64">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="N64">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O64">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>480</v>
+        <v>260</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K65">
-        <v>0.1433962264150943</v>
+        <v>0.1949152542372881</v>
       </c>
       <c r="L65">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M65">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="N65">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="O65">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>227</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K66">
-        <v>0.1416309012875537</v>
+        <v>0.1946902654867257</v>
       </c>
       <c r="L66">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="M66">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N66">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>200</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K67">
-        <v>0.1395348837209302</v>
+        <v>0.1938775510204082</v>
       </c>
       <c r="L67">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="M67">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="N67">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>740</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K68">
-        <v>0.1386861313868613</v>
+        <v>0.1926091825307951</v>
       </c>
       <c r="L68">
-        <v>19</v>
+        <v>172</v>
       </c>
       <c r="M68">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>118</v>
+        <v>721</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K69">
-        <v>0.1272727272727273</v>
+        <v>0.1853496115427303</v>
       </c>
       <c r="L69">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="M69">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="N69">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>144</v>
+        <v>734</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K70">
-        <v>0.1233766233766234</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L70">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M70">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2614,125 +2641,125 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>270</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="K71">
-        <v>0.1222047244094488</v>
+        <v>0.1771028037383177</v>
       </c>
       <c r="L71">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="M71">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="N71">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="O71">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>2787</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K72">
-        <v>0.1116071428571429</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="L72">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M72">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N72">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>199</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K73">
-        <v>0.1</v>
+        <v>0.1759259259259259</v>
       </c>
       <c r="L73">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="M73">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="N73">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O73">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P73" t="b">
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>252</v>
+        <v>534</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K74">
-        <v>0.09705372616984402</v>
+        <v>0.1751824817518248</v>
       </c>
       <c r="L74">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="M74">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="N74">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>1042</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K75">
-        <v>0.08370044052863436</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="L75">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M75">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2744,137 +2771,527 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>208</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K76">
-        <v>0.0738255033557047</v>
+        <v>0.1729468599033817</v>
       </c>
       <c r="L76">
-        <v>22</v>
+        <v>537</v>
       </c>
       <c r="M76">
-        <v>24</v>
+        <v>539</v>
       </c>
       <c r="N76">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>276</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K77">
-        <v>0.0718954248366013</v>
+        <v>0.1729323308270677</v>
       </c>
       <c r="L77">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="M77">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>284</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K78">
-        <v>0.06654343807763401</v>
+        <v>0.1590909090909091</v>
       </c>
       <c r="L78">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="M78">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="N78">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O78">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>505</v>
+        <v>259</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K79">
-        <v>0.06442577030812324</v>
+        <v>0.145985401459854</v>
       </c>
       <c r="L79">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M79">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N79">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>334</v>
+        <v>117</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K80">
-        <v>0.06256517205422316</v>
+        <v>0.1453488372093023</v>
       </c>
       <c r="L80">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="M80">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="N80">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="O80">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>899</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K81">
+        <v>0.1384083044982699</v>
+      </c>
+      <c r="L81">
+        <v>120</v>
+      </c>
+      <c r="M81">
+        <v>120</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K82">
+        <v>0.1358024691358025</v>
+      </c>
+      <c r="L82">
+        <v>77</v>
+      </c>
+      <c r="M82">
+        <v>77</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K83">
+        <v>0.1351351351351351</v>
+      </c>
+      <c r="L83">
+        <v>25</v>
+      </c>
+      <c r="M83">
+        <v>25</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17">
+      <c r="J84" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K84">
+        <v>0.1327433628318584</v>
+      </c>
+      <c r="L84">
+        <v>30</v>
+      </c>
+      <c r="M84">
+        <v>31</v>
+      </c>
+      <c r="N84">
+        <v>0.97</v>
+      </c>
+      <c r="O84">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P84" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17">
+      <c r="J85" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K85">
+        <v>0.1309784307596124</v>
+      </c>
+      <c r="L85">
+        <v>419</v>
+      </c>
+      <c r="M85">
+        <v>421</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K86">
+        <v>0.1219512195121951</v>
+      </c>
+      <c r="L86">
+        <v>20</v>
+      </c>
+      <c r="M86">
+        <v>20</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K87">
+        <v>0.1155555555555556</v>
+      </c>
+      <c r="L87">
+        <v>26</v>
+      </c>
+      <c r="M87">
+        <v>26</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K88">
+        <v>0.1144578313253012</v>
+      </c>
+      <c r="L88">
+        <v>19</v>
+      </c>
+      <c r="M88">
+        <v>19</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="10:17">
+      <c r="J89" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K89">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L89">
+        <v>129</v>
+      </c>
+      <c r="M89">
+        <v>129</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="90" spans="10:17">
+      <c r="J90" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K90">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L90">
+        <v>40</v>
+      </c>
+      <c r="M90">
+        <v>40</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="91" spans="10:17">
+      <c r="J91" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K91">
+        <v>0.103202846975089</v>
+      </c>
+      <c r="L91">
+        <v>29</v>
+      </c>
+      <c r="M91">
+        <v>29</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="92" spans="10:17">
+      <c r="J92" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K92">
+        <v>0.1003344481605351</v>
+      </c>
+      <c r="L92">
+        <v>30</v>
+      </c>
+      <c r="M92">
+        <v>31</v>
+      </c>
+      <c r="N92">
+        <v>0.97</v>
+      </c>
+      <c r="O92">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P92" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="93" spans="10:17">
+      <c r="J93" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K93">
+        <v>0.08823529411764706</v>
+      </c>
+      <c r="L93">
+        <v>27</v>
+      </c>
+      <c r="M93">
+        <v>27</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="94" spans="10:17">
+      <c r="J94" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K94">
+        <v>0.08057851239669421</v>
+      </c>
+      <c r="L94">
+        <v>78</v>
+      </c>
+      <c r="M94">
+        <v>78</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="95" spans="10:17">
+      <c r="J95" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K95">
+        <v>0.07550644567219153</v>
+      </c>
+      <c r="L95">
+        <v>41</v>
+      </c>
+      <c r="M95">
+        <v>43</v>
+      </c>
+      <c r="N95">
+        <v>0.95</v>
+      </c>
+      <c r="O95">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P95" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>502</v>
       </c>
     </row>
   </sheetData>
